--- a/data/trans_dic/P28A_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,29%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,82; 66,83</t>
+          <t>57,06; 72,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 30,21</t>
+          <t>19,03; 33,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,6; 40,35</t>
+          <t>21,52; 42,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 36,78</t>
+          <t>18,43; 42,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,42; 67,2</t>
+          <t>54,71; 68,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 34,43</t>
+          <t>21,76; 34,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 37,64</t>
+          <t>25,46; 38,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 40,95</t>
+          <t>14,16; 25,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,36; 65,17</t>
+          <t>58,08; 68,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,42; 30,85</t>
+          <t>22,44; 32,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,2; 37,39</t>
+          <t>25,42; 37,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,17; 33,54</t>
+          <t>18,12; 32,7</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>20,54%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,1; 56,74</t>
+          <t>40,11; 57,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 24,72</t>
+          <t>15,03; 29,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 28,92</t>
+          <t>16,78; 31,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,96; 24,31</t>
+          <t>13,27; 27,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,52; 62,22</t>
+          <t>47,53; 62,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 33,68</t>
+          <t>18,96; 33,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,52; 41,28</t>
+          <t>21,72; 36,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 26,96</t>
+          <t>15,93; 29,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,44; 58,42</t>
+          <t>46,08; 58,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,72</t>
+          <t>18,96; 28,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 33,12</t>
+          <t>21,07; 31,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 23,9</t>
+          <t>15,92; 26,48</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,88; 78,93</t>
+          <t>61,58; 93,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 31,43</t>
+          <t>6,61; 39,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 37,16</t>
+          <t>2,61; 32,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 54,91</t>
+          <t>6,23; 70,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 57,58</t>
+          <t>26,54; 59,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,36; 45,24</t>
+          <t>9,59; 36,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 29,46</t>
+          <t>3,65; 25,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 37,94</t>
+          <t>9,7; 39,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,31; 66,05</t>
+          <t>48,15; 76,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 33,73</t>
+          <t>11,31; 32,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 29,59</t>
+          <t>4,45; 22,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 40,41</t>
+          <t>12,17; 49,85</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>22,38%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,34; 61,51</t>
+          <t>54,57; 66,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,97</t>
+          <t>18,5; 28,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,78</t>
+          <t>20,07; 33,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,41; 29,87</t>
+          <t>18,06; 34,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,17; 61,95</t>
+          <t>52,32; 62,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,37</t>
+          <t>21,87; 30,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 36,12</t>
+          <t>24,2; 33,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,43</t>
+          <t>16,42; 25,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,38; 60,62</t>
+          <t>55,12; 62,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,0</t>
+          <t>21,95; 28,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,6</t>
+          <t>23,51; 30,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,3</t>
+          <t>18,73; 28,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>238036</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>109415</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108757</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103999</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>268467</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>142004</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>133962</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>78386</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>506503</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>251419</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>242719</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>182385</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>208674; 266613</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81853; 143065</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78811; 156909</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>70200; 160556</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>238168; 296228</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>110737; 175278</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>107227; 162376</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57716; 102585</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>465259; 545176</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>210715; 301817</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>200098; 295628</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>142853; 257796</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>148288</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78629</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>73754</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61547</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>194474</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>109638</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97229</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73535</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>342762</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>188266</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170984</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>135082</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122219; 176341</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54013; 104989</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53424; 100336</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42803; 87105</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>166384; 220066</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>80648; 143408</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73503; 121848</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53380; 97586</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>301711; 382242</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>148808; 225481</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>138375; 205926</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104673; 174120</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68699</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19677</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8675</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26467</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35055</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21050</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8989</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17257</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>103754</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40727</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17664</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43724</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52239; 79024</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6728; 40592</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2076; 25837</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5334; 60173</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21926; 49559</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9700; 36981</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2976; 21197</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8005; 32542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>80616; 127866</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22958; 66592</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7175; 35748</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20471; 83814</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>455023</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>207720</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>191186</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>192014</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>497997</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>272692</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>240180</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>169177</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>953019</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>480412</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>431366</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>361191</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>412134; 502319</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>164868; 253934</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>153381; 253336</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>142487; 268480</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>454171; 540952</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>226407; 318767</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>203511; 280583</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135500; 207701</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>894854; 1013095</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>422872; 549237</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>377345; 496496</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>302353; 455422</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>